--- a/Cleaned Data/Age US categories.xlsx
+++ b/Cleaned Data/Age US categories.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B528FEE-BF64-FE4B-AB2F-1FF751001A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4F0C0-E090-AA43-BECE-4D33EFDD271D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{C2348F18-7F3D-3844-B95D-9923080A92F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$2:$F$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$2:$G$10</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$F$2:$F$10</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$G$2:$G$10</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1181,10 +1173,10 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1511,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57B368B-693C-A74D-9134-EB9D7CA3485E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
